--- a/MachineLearningDemo/assets/upload/Credit Card Live Data.xlsx
+++ b/MachineLearningDemo/assets/upload/Credit Card Live Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Azure\ML-.Net-Demo\MachineLearningDemo\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A058BB0-FF0A-457A-91E1-60F08CE31687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D29582-21A8-4768-B4DA-8C1AABE852EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3463,7 +3463,7 @@
   <dimension ref="A1:E1504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1493" workbookViewId="0">
-      <selection activeCell="D1502" sqref="D1502"/>
+      <selection activeCell="D1503" sqref="D1503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MachineLearningDemo/assets/upload/Credit Card Live Data.xlsx
+++ b/MachineLearningDemo/assets/upload/Credit Card Live Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Azure\ML-.Net-Demo\MachineLearningDemo\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D29582-21A8-4768-B4DA-8C1AABE852EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0AB3A-CC46-4182-9B20-77EBDDEA8D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="1019">
   <si>
     <t>Amount</t>
   </si>
@@ -3074,6 +3074,12 @@
   </si>
   <si>
     <t>07/27/2020</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>08/02/2020</t>
   </si>
 </sst>
 </file>
@@ -3460,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1504"/>
+  <dimension ref="A1:E1507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1493" workbookViewId="0">
-      <selection activeCell="D1503" sqref="D1503"/>
+    <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
+      <selection activeCell="D1507" sqref="D1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29043,6 +29049,57 @@
         <v>4000.23</v>
       </c>
     </row>
+    <row r="1505" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1505" s="14">
+        <v>41504</v>
+      </c>
+      <c r="B1505" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1505" s="15">
+        <v>59812</v>
+      </c>
+      <c r="D1505" s="16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E1505" s="14">
+        <v>3000.23</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1506" s="14">
+        <v>41505</v>
+      </c>
+      <c r="B1506" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1506" s="15">
+        <v>59812</v>
+      </c>
+      <c r="D1506" s="16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E1506" s="14">
+        <v>2000.23</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1507" s="14">
+        <v>41505</v>
+      </c>
+      <c r="B1507" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1507" s="15">
+        <v>59812</v>
+      </c>
+      <c r="D1507" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1507" s="14">
+        <v>5000.2299999999996</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="C1:C1504" xr:uid="{703B5681-D7FC-4DA2-AF1C-6EC077854DF0}"/>

--- a/MachineLearningDemo/assets/upload/Credit Card Live Data.xlsx
+++ b/MachineLearningDemo/assets/upload/Credit Card Live Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Azure\ML-.Net-Demo\MachineLearningDemo\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0AB3A-CC46-4182-9B20-77EBDDEA8D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7EB3EF-5759-40B8-A3D7-73658DE6A5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="1019">
   <si>
     <t>Amount</t>
   </si>
@@ -3466,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1507"/>
+  <dimension ref="A1:E1509"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
-      <selection activeCell="D1507" sqref="D1507"/>
+      <selection activeCell="C1508" sqref="C1508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29100,6 +29100,40 @@
         <v>5000.2299999999996</v>
       </c>
     </row>
+    <row r="1508" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1508" s="14">
+        <v>41506</v>
+      </c>
+      <c r="B1508" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1508" s="15">
+        <v>69812</v>
+      </c>
+      <c r="D1508" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1508" s="14">
+        <v>5500.23</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1509" s="14">
+        <v>41507</v>
+      </c>
+      <c r="B1509" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1509" s="15">
+        <v>69812</v>
+      </c>
+      <c r="D1509" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1509" s="14">
+        <v>4500.2299999999996</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="C1:C1504" xr:uid="{703B5681-D7FC-4DA2-AF1C-6EC077854DF0}"/>
